--- a/biology/Botanique/Bonamia_(plante)/Bonamia_(plante).xlsx
+++ b/biology/Botanique/Bonamia_(plante)/Bonamia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonamia est un genre de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (9 mars 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (9 mars 2019) :
 Bonamia dietrichiana Hallier
 Bonamia grandiflora (Gray) Hallier f.
 Bonamia menziesii Gray
 Bonamia ovalifolia (Torr.) Hallier f.
 Bonamia repens (I.M. Johnston) Austin &amp; Staples
-Selon Catalogue of Life                                   (9 mars 2019)[4] :
+Selon Catalogue of Life                                   (9 mars 2019) :
 Bonamia agrostopolis (Vell.) Hall. fil.
 Bonamia alatisemina R. W. Johnson
 Bonamia alternifolia J. H. Jaume St.-Hilaire
@@ -586,16 +600,16 @@
 Bonamia umbellata (Choisy) Hall. fil.
 Bonamia velutina Verdc.
 Bonamia wilsoniae R. W. Johnson
-Selon GRIN            (9 mars 2019)[5] :
+Selon GRIN            (9 mars 2019) :
 Bonamia grandiflora (A. Gray) Hallier f.
 Bonamia menziesii A. Gray
 Bonamia ovalifolia (Torr.) Hallier f.
-Selon ITIS      (9 mars 2019)[6] :
+Selon ITIS      (9 mars 2019) :
 Bonamia grandiflora (A. Gray) Hallier f.
 Bonamia menziesii A. Gray
 Bonamia ovalifolia (Torr.) Hallier f.
 Bonamia repens (I.M. Johnst.) D.F. Austin &amp; Staples
-Selon World Checklist of Selected Plant Families (WCSP)  (9 mars 2019)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (9 mars 2019) :
 Bonamia abscissa (Choisy) Hallier f. (1897)
 Bonamia agrostopolis (Vell.) Hallier f., Bot. Jahrb. Syst. 16: 529, 563 (1893)
 Bonamia alatisemina R.W.Johnson (1987)
@@ -674,7 +688,7 @@
 Bonamia velutina Verdc. (1961)
 Bonamia vignei Hoyle (1934)
 Bonamia wilsoniae R.W.Johnson (2014)
-Selon Tropicos                                           (9 mars 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 mars 2019) (Attention liste brute contenant possiblement des synonymes) :
 Bonamia abdita (Myint) R.W. Long
 Bonamia agrostopolis (Vell.) Hallier f.
 Bonamia alternifolia J. St.-Hil.
